--- a/config_1.26/fish_yutu_random_2.xlsx
+++ b/config_1.26/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -381,7 +381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,12 +392,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -437,7 +431,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -471,20 +465,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1167,8 +1158,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1468,196 +1459,196 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="16">
         <v>40</v>
       </c>
-      <c r="D13" s="15">
-        <v>2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14">
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="16">
         <v>41</v>
       </c>
-      <c r="D14" s="15">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14">
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="16">
         <v>42</v>
       </c>
-      <c r="D15" s="15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14">
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="16">
         <v>43</v>
       </c>
-      <c r="D16" s="15">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="14">
+      <c r="F16" s="18"/>
+      <c r="G16" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="16">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>44</v>
       </c>
-      <c r="D17" s="18">
-        <v>2</v>
-      </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19">
-        <v>1611014400</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1611590399</v>
+      <c r="D17" s="15">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="14">
         <v>45</v>
       </c>
-      <c r="D18" s="18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19">
-        <v>1611014400</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1611590399</v>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="14">
         <v>46</v>
       </c>
-      <c r="D19" s="18">
-        <v>2</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19">
-        <v>1611014400</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1611590399</v>
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="14">
         <v>47</v>
       </c>
-      <c r="D20" s="18">
-        <v>2</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
         <v>5</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19">
-        <v>1611014400</v>
-      </c>
-      <c r="H20" s="19">
-        <v>1611590399</v>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
+        <v>1611619200</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1612195199</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1846,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
